--- a/result.xlsx
+++ b/result.xlsx
@@ -481,42 +481,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11557224</t>
+          <t>11559729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557224</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559729</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Здравствуйте!У меня есть материнский капитал, но официального дохода нет. У сына есть официальный доход. Можем ли мы быть созаемщиками при взятии ипотечного кредита на вторичное жилье, используя мой материнский капитал и его 2-НДФЛ?Спасибо!</t>
+          <t>Добрый день.На станице проверки исполнительных листов Сбербанка указано, что отказано во взыскании по исполнительному листу ФС № 037789796 , неверный ИНН должника. Лист возвращен по адресу взыскателя.Прошло уже 1,5 месяца, листа нет.Просьба сообщить, где лист!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2215250</t>
+          <t>4514140</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Natalia826724</t>
+          <t>obraztsovanv</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=2215250</t>
+          <t>https://banki.ru/profile/index.php?UID=4514140</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ульяновск</t>
+          <t>Воронеж</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Здравствуйте!Я уточню и вернусь к вам с ответом.</t>
+          <t>Здравствуйте!Спасибо, письмо получила. Проверю и вернусь с ответом.</t>
         </is>
       </c>
     </row>
@@ -526,42 +526,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11557223</t>
+          <t>11559710</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557223</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559710</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.04.2021 г. оплатила картой онлайн покупку товара на сумму 3649р в 13.38. И в этот же день в 14.32 вернула товар,и в личном кабинете имеется электронный чек о возврате товара.Звонила интернет -магазин и сказали что сбербанк на наш магазин не успел перевести деньги,поэтому вам не можем послать уведомление о отправлении денег,так как поступлений не было.Смотрите в приложении о списании денег,захожу в сбербанк онлайн,странно никаких отметок что списании денег нет,а электронный чек есть.! Куда мне жаловаться о возврате моих денег?</t>
+          <t>Здравствуйте я хочу отказаться от подписки сберпрайм и вернуть средства так как она у меня нормально не работает и большинством невозможно пользоваться</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4476562</t>
+          <t>4513130</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Marta45</t>
+          <t>Voronyana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4476562</t>
+          <t>https://banki.ru/profile/index.php?UID=4513130</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Махачкала</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Здравствуйте!Пришлите на zabota@sberbank.ru ваши ФИО, дату рождения, контактный номер и последние 4 цифры номера карты, с которой совершали покупку, в теме письма укажите «11557223 banki.ru». Я проверю.</t>
+          <t>Здравствуйте!Вижу ваш отзыв в разделе «Народный Рейтинг», отвечу вам там.</t>
         </is>
       </c>
     </row>
@@ -571,42 +571,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11557199</t>
+          <t>11559654</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557199</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559654</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Здравствуйте ещё раз!Мой вопрос 11557013 решен так и не был.В очередной раз пришёл отказ по реструктуризации.Новые причины отказа неплатёжеспособность,отсюда вопрос,если я подаю на реструктуризацию наверно у меня проблемы с платежеспособностью,где логика банка.Вы просто сливаете клиентов не желая помогать. Когда зарплата большая вы с удовольствием накидываете кредитов,когда у человека проблемы и он хочет их решить мирным путём вы ищите какие то стандартные отговорки чтобы эту проблему не решать.тем самым подводя человека к лишению единственного жилья. Мало того что сегодня праздничный день объявленный официально ваши коллекторы звонят в неположенное время с 8 утра так и вопросы не решаются.</t>
+          <t>Добрый день, прошу ответить на вопрос:Сколько времени хранится видеозапись из клиентского зала в отделении Сбербанка? Леонид был взят дальними родственниками из психиатрической больницы на короткий период. Он инвалид, опекунство не оформлялось. 99% что эти родственники использовали это и для того, чтобы он снял деньги со своего пенсионного счета и отдал им. Потом, вскоре Леонид неожиданно умер.. Это было в декабре 2020.Нам нужно обратиться в полицию об этом. Именно нужна видеозапись, чтобы увидеть, кто присутствовал с Леонидом. Отыщется ли эта запись?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4471123</t>
+          <t>2685282</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inka657</t>
+          <t>Mobodi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4471123</t>
+          <t>https://banki.ru/profile/index.php?UID=2685282</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Волхов</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Здравствуйте! Еще занимаюсь вашим вопросом, как только будет результат, сразу вам сообщу.</t>
+          <t>Здравствуйте! Увы, видеозапись хранится 14 дней.</t>
         </is>
       </c>
     </row>
@@ -616,42 +616,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11557190</t>
+          <t>11559638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557190</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559638</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Как вернуть незаконно списанное детское пособие в счёт погашения кредита? Списали вчера с карты в полном объёме. В контактом центре утверждают, что имеют право на это. А как же тогда работает закон?</t>
+          <t>Здравствуйте.Подскажите пожалуйста,пришли в сбербанк,нам одобрили ипотеку,связался с нами менеджер с Домклик,3 недели терзали всех документами,сказали оплатить в итоге оценщика,договор купли продажи и много чего еще ненужного,когда оплатили,приехал оценщик,составили предворительгый договор купли-продажи,а потом сообщили что каких то документов не хватает,и заморозили сделку.Объясните,как они могли составить договор,если не было достаточно документов?И кто мне теперь вернет эти деньги?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1161411</t>
+          <t>4512448</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>viccaa</t>
+          <t>Vikysya94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=1161411</t>
+          <t>https://banki.ru/profile/index.php?UID=4512448</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Волгоград</t>
+          <t>Тамбов</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Здравствуйте!Я все проверю и вернусь с комментарием до 20 мая включительно. Пожалуйста, ожидайте.</t>
+          <t>Здравствуйте! Пришлите, пожалуйста, на zabota@sberbank.ru ФИО, дату рождения и контактный номер телефона основного заемщика. В теме письма укажите «11559638 banki.ru», все проверю.</t>
         </is>
       </c>
     </row>
@@ -661,42 +661,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11557185</t>
+          <t>11559608</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557185</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559608</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Как разблакироват карта?</t>
+          <t>Здравствуйте! Как мне получить справку о задолжности по кредиту?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4475189</t>
+          <t>2673616</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>89511111617</t>
+          <t>user6163762</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4475189</t>
+          <t>https://banki.ru/profile/index.php?UID=2673616</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Рязань</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Здравствуйте!Рекомендую позвонить по номеру 900, коллеги проверят возможность разблокировки карты.</t>
+          <t>Здравствуйте! Справку о наличии/остатке задолженности вы можете получить в любом кредитующем офисе.</t>
         </is>
       </c>
     </row>
@@ -706,42 +706,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11557179</t>
+          <t>11559601</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557179</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559601</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Жду уже неделю ответа на отзыв, нельзя ли ускориться?</t>
+          <t>Здравствуйте, Мария! Хочу поделиться… впечатлениями от всего спектра общения со Сбербанком в минувшие майские праздники. Вдруг случится чудо, и с этими проблемами что-то начнут делать.Ситуация простая — 30.04.21 выбрал в интернет банке функцию «получить в другом отделении» на перевыпускаемую карту. Отдельное спасибо разработчикам сайта — ни одного упоминания, что при этом карта заблокируется. И оператору службы 900 — обещавшей, что дни с 04 по 07 мая в плане изготовления карты будут считаться рабочими, и готова будет 05 мая (на деле — только 11).Но я заехал. Мне же обещали. А вот что было особо интересно, почему служба 900 не в курсе, ни что все отделения в моем городе в эти дни были закрыты, ни когда будут работать? Ладно несчастный робот — не понимает на «слух» правильный адрес отделения (надеялся найти ближайший работающий), не догадывается спросить номер отделения, шлет смс с нерабочими ссылками… Но живые люди, трое подряд кстати, которым говорят, что нет такой информации на вашем сайте, куда они упорно отсылают — это уже слишком. А на сайте закрытое якобы работает. А у службы «сейчас нет информации по графику работы». Да там каждое отделение работало по своему, а на сайте — стандартный график. В служба поддержки звонят т. с. не от хорошей жизни, а они то врут, то ничего не знают…Ну и чтобы совсем добить отношение к себе, Сбер открыл 07 мая несколько отделений полупустыми от наличных. Буквально побираются люди, ну выдайте хоть немного побольше… Это тоже нужно было догадаться, что денег не будет? Как, позвонить то чтобы такое узнать просто некому…</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>4511662</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>netbankam</t>
+          <t>Евгений А.-83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=2004000</t>
+          <t>https://banki.ru/profile/index.php?UID=4511662</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Первоуральск</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Здравствуйте!Вопрос еще находится в работе. Напишу вам по итогу в разделе «Народный Рейтинг». Пожалуйста, ожидайте.</t>
+          <t>Здравствуйте! В приложении при перевыпуске возникает окно с предупреждением о блокировке карты и изменении данных. Увы, связаться с офисом по телефону нельзя, только личное посещение. Пришлите, пожалуйста, на zabota@sberbank.ru ваши ФИО, дату рождения и контактный номер телефона, а также дату и время звонков в контактный центр. В теме письма укажите «11559601 banki.ru», все проверю.</t>
         </is>
       </c>
     </row>
@@ -751,42 +751,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11557170</t>
+          <t>11559599</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557170</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559599</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Здравствуйте, Мария, скажите пожалуйста мне помогут с решением моей проблемы?Или мне надо обращаться в надзорные органы (цб,Росфинмониторинг)?И указывать что банк не хочет оказывать содействие в возврате средств от оффшорной компании которая не имеет лицензии на территории РФ и нарушает 115-ФЗ и 244-фз?Банк следуя моим доказательствам не встал на мою сторону, и не принимает мои доказательства как основание для возврата.Такое ощущение будто Сбер не заинтересован в возврате денег от недобросовестных продавцов. Скоро с таким отношением, многие перейдут к другому банку, который идёт навстречу и помогает своим клиентам в решении проблем.У меня есть вся переписка с банком и ответ Банка эквайера, и в нем четко написано что типо услуга оказана, в то время как Сбербанк утверждает что шла оплата не за услугу.Но сотрудники сбера, так и банк эквайер не предоставил каких то весомых доказательств исполнения услуги, в то время как я предоставил множество скриншотов где четко видно, что компания в которую поступили мои денежные средства, отказали мне в выводе средств свойственно чем нарушили правила договора так как в правилах сказано что пользователь может в любое время вывести свои денежные средства. В итоге на скриншотах которых я предоставил видно что компания отклоняет заявки на вывод и ссылается на то что бы я отправил документы для верификации, а потом требует внести ещё денежные средства для разблокировки аккаунта. Так же предоставил общение с компанией по почте и на сайте компании, но даже тут сотрудники Сбербанка которые рассматривали мою заявку закрывают на это глаза?Скажите Мария, пожалуйста, почему ко мне так отнеслись? Почему я имея права на передачу заявления в МПС visa должен вас об этом упрашивать?Почему мне не хотят помочь?</t>
+          <t>Пр ранее заданному мной вопросу 30.04.2021 вы ответили что всё проверите до 19 июня, что можно проверять полтора месяца??? Прошу предоставить конкретику в кротчайшее время</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4166969</t>
+          <t>4454112</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grifman</t>
+          <t>SergeyStrokun</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4166969</t>
+          <t>https://banki.ru/profile/index.php?UID=4454112</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Здравствуйте! Сейчас проводится детальная проверка по вашей ситуации. Свяжусь с вами сразу же, как будет результат. Прошу подождать.</t>
+          <t>Здравствуйте! Для проверки требуется время. Делаю все возможное для скорейшего решения. Прошу подождать 🙏</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11557159</t>
+          <t>11559380</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557159</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559380</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Здравствуйте! У меня вопрос про «кредитный потенциал».Часто беру кредиты, некоторые выплачиваю досрочно, просрочек не имею. Мой потенциал 39 500р.На днях закрыл все кредиты, обновил «потенциал» и увидел, что с 39 500, сумма упала до 10 500 в месяц. С чем это связано? Почему кредитный потенциал упал? Просрочек не имею, кредитов в других банках так же не имею, за исключением карты с лимитом 10 000р., с которой так же все в полном порядке. Более того, даже имея обновлённый потенциал в 10 500, я не могу взять кредит, кнопка не активна. Операторы отвечают заученными фразами: попробуйте обновить через месяц, срок действия потенциала 30 дней.</t>
+          <t>Подскажите на каком основании банк списал со четов карт сумму на много больше чем был арест наложенный приставом в рамках исполнительного производства.?????</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4474343</t>
+          <t>3792837</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>aaknvlv</t>
+          <t>vadimdolzhikov</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4474343</t>
+          <t>https://banki.ru/profile/index.php?UID=3792837</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Лабинск</t>
+          <t>Олел</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Здравствуйте! Спасибо, письмо у меня. Вернусь к вам с комментарием или ответом до 16.05.2021.</t>
+          <t>Здравствуйте!Проверю и вернусь к вам до 16 мая.</t>
         </is>
       </c>
     </row>
@@ -841,42 +841,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11557150</t>
+          <t>11559243</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557150</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Вопрос по акции «До 2500 бонусов за покупки в СберМегаМаркете» (https://spasibosberbank.ru/partners_pr…amarkete/). В пункте 3.1 Правил акции (https://spasibosberbank.ru/upload/iblo…rules.pdf) указано, что «Принять участие в Акции вправе Участники Программы, которые… в период с «01» января 2017 г. по «23» апреля 2021 г. включительно приобретали Товары дистанционным способом путем совершения расходной операции по своему банковскому счету с использованием Карты и информационно-телекоммуникационной сети «Интернет» (например, в интерне-магазинах, мобильных приложениях, предусматривающих возможность дистанционной оплаты Товаров, за исключением Торговых точек Компании).» Я обратился в чат Сбербанк онлайн с просьбой разъяснить, действительно ли в соответствии с данным пунктом для участия в акции необходимо в указанный выше период совершить хотя бы одну покупку товаров в каком-либо интернет-магазине за исключением приобретения товаров в торговых точках Организатора акции. При этом, покупок в Торговых точках Организатора акции быть не должно. Также я просил проверить, подходят ли мои карты Сберабнка для участия в акции по данному критерию, поскольку я не помнил, совершал ли я операции в сети Интернет по приобретению товаров за указанный период с использованием карт Сбербанка. Оператор чата сообщил мне, что для участия в акции необходимо только в указанный период не совершать операций по приобретению товаров на goods.ru и Сбермегамаркете. Требований же о совершении операций по приобретению товаров в сети интернет для участия в данной акции, по словам специалиста Сбербанка, нет. Это утверждение специалист повторила несколько раз, так как я не был уверен в этом ответе (прошу ознакомиться с диалогом в чате Сбербанк онлайн).Прошу подтвердить, действительно ли для участия в указанной акции достаточно выполнения условия о несовершении в период с с «01» января 2017 г. по «23» апреля 2021 г. включительно операций по приобретению товаров на сайте goods.ru, а также в Сбермегамаркете. При этом дополнительных условий о, напротив, совершении, покупки товаров дистанционным способом в иных интернет магазинах в указанный период нет? Если всё же такое условие (о совершении хотя бы одной покупки дистанционным способом в иных интернет магазинах) есть, прошу проверить, выполнено ли оно по моим картам Сберабнка для участия в указанной акции.</t>
+          <t>Добрый день!в моем обращении от 11.05.2021 12:13 я написала, что в документах по данному кредиту в СБЕРБАНК ОН-ЛАЙН договора нет.Я прекрасно знаю, где нужно его искать в веб-версии СберБанк Онлайн, но там его нет. Там только поручение на списание денежных средств с определенного счета.Поэтому, хотелось бы получить свой кредитный договор. Как это сделать?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>243958</t>
+          <t>1116382</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>san978</t>
+          <t>Ta_ti_ana</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=243958</t>
+          <t>https://banki.ru/profile/index.php?UID=1116382</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Клинцы</t>
+          <t>Красногорск</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Здравствуйте!Я всё уточню и вернусь к вам с ответом.</t>
+          <t>Здравствуйте!Письмо получила, спасибо. Все проверю и вернусь с комментарием до 24 мая.</t>
         </is>
       </c>
     </row>
@@ -886,42 +886,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11557106</t>
+          <t>11559144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557106</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559144</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Здравствуйте,у меня заканчивается срок кредитной карты. Смогу ли я гасить задолженность по карте в приложении,если я не получу новую карту?</t>
+          <t>Здравствуйте, Мария!На мое обращение № 210507-0363-226500 от 07.05.2021 по поводу неправильного начисления процентов по вкладу сегодня получен ответ: «Проценты по вкладу начислены корректно.»Банк начислил 3 823,16 руб. за квартал по ставке 3,5% годовых.Перепроверил. По моим расчетам должно быть 5 220,42 руб.Разница в пользу Сбера — 1 397,26 руб.Как так, Сбер уже начал обсчитывать вкладчиков на процентах?Поясните, пожалуйста.Файл моего расчета и выписку движения по счету могу выслать дополнительно.С уважением, Сергей.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4473497</t>
+          <t>4510333</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ludmila1961vlad</t>
+          <t>MSergey2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4473497</t>
+          <t>https://banki.ru/profile/index.php?UID=4510333</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Нижнекамск</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Здравствуйте!Да, можно будет переводить в СберБанк Онлайн через раздел «Между своими счетами» на заблокированную карту (ее нужно заблокировать по звонку на 900) до тех пор, пока она не будет уничтожена в офисе банка. Пластик ожидает получения в течение 4 месяцев с момента поступления в отделение.</t>
+          <t>Здравствуйте!Все проверю и вернусь к вам с комментарием до 7 июня.</t>
         </is>
       </c>
     </row>
@@ -931,42 +931,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11557084</t>
+          <t>11559064</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557084</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559064</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Мария, Здравствуйте, 21.04 я разместил данный отзыв https://www.banki.ru/services/response.. ./10500690/, с просьбой в комментарии решить вопрос максимально быстро. Вы даже не указали сроков в ответе, хотя обычно это делаете, что для меня подразумевало то, что вы попытаетесь решить вопрос побыстрее. Но сейчас прошло уже 2 недели, и при этом я на днях был в отделении, где никто даже не в курсе о том, что я размещал данный отзыв и ведется какая-то проверка. Разъясните мне пожалуйста на какой стадии находится решение данного вопроса и каким образом Вы ведете проверку, что никто о ней не в курсе? Лично мне видится, что абсолютно никаких действий не происходит, а в лучшем случае через месяц вы предоставите мне очередную отписку.Я предлагаю Вам в канун Дня Победы все же уважить инвалида и ветерана труда 1941 г. р., и предоставить ответ, только не отпиской, а исходя из моих конкретных претензий и фактов, чтобы даже в случае отрицательного результата я не терял больше времени и денег, которые я теряю без депозита, и которые с меня списывают в вашем чудесном Управлении Активами, и оперативно обращался в суд и другие инстанции со спокойной душой.Отмечу, что исходя из юридических консультаций, которые я получил, договор с Управлением Активами должен быть признан недействительным, как минимум ввиду того, что с момента появления у меня хотя бы минимальной информации о признаках оформления ИИС (10 марта) до момента моего официального первого обращения 22 марта, прошло менее 14 дней.</t>
+          <t>Мария Александрова, мне комментарии не нужны. Вы почему так поступаете, я имею ввиду банк! Кто дал право расспоряжаться моими деньгами? Верните!!! Почему я должна бегать за ними…</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>790096</t>
+          <t>4490004</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ftotti</t>
+          <t>Nnuu1052</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=790096</t>
+          <t>https://banki.ru/profile/index.php?UID=4490004</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Красноярск</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Здравствуйте!Я занимаюсь решением вашего вопроса в рамках обращения 210420 0992 076500. Потребовалось связаться с компанией «СберУправление Активами», поэтому необходимо еще время. Как только будет ответ — обязательно вам сообщу.</t>
+          <t>Здравствуйте!Занимаюсь вашим вопросом, вернусь с промежуточными или итоговыми результатами проверки. Пожалуйста, подождите.</t>
         </is>
       </c>
     </row>
@@ -976,42 +976,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11557072</t>
+          <t>11559036</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557072</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559036</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>СБЕРБАНК СНЯЛ АЛИМЕНТЫ В СЧЕТ ПОГАШЕНИЯ КРЕДИТА!!! На сколько мне известно алименты не прикосновенны!!! Тем более что перечесление пришло от судебных приставов с кодом Алименты!!!</t>
+          <t>Мария Александрова, добрый вечер! Скажите, как происходит рассмотрение моего вопроса? Запрос 11558052. Банк вернул не всю сумму!!! Где повисли 1.415.28 рублей???</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4472627</t>
+          <t>4490004</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Марина1410</t>
+          <t>Nnuu1052</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4472627</t>
+          <t>https://banki.ru/profile/index.php?UID=4490004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Кунгур</t>
+          <t>Красноярск</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Здравствуйте!Отвечу вам в разделе «Народный рейтинг».</t>
+          <t>Здравствуйте!Занимаюсь вашим вопросом, вернусь с комментарием до 22 мая, постараюсь раньше.</t>
         </is>
       </c>
     </row>
@@ -1021,42 +1021,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11557048</t>
+          <t>11559021</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557048</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Здравствуйте,Много лет назад оформил и пользовался дебетовой картой Сбербанка, последняя операция была лет 7 назад. Через приложение ФНС увидел, что у меня открыто целых 2 счета. Хотел закрыть их и открыть один с бесплатной дебетовой картой. Пришёл в отделение, а мне сказали, что у меня долг за обслуживание дебетовой карты (которой я пользовался последний раз в много лет назад и не получал новых) почти 5000 рублей.Банк пойдёт мне на встречу оставив только один счет (не знаю от куда два) и спишет сумму долга до одного года обслуживания?</t>
+          <t>Добрый день, по ранее заданному вопросу 30.04.2021 в 15,36 поступил от вас ответ, дайте чёткое понимание каких документов ещё не хватает, по словам ваших сотрудников банка был предоставлен полный пакет документов (узнавал у разных людей по всем вашим внутренним службам) напишите, что именно ещё нужно. И второе, о каком поручительстве от вас идёт речь?? Вы погружались вообще в суть вопроса? Мне нужна реструктуризация в связи с потерей работы! Срочно дайте чёткое понимание какие документы ещё нужны для положительного решения по реструктуризации!</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4471950</t>
+          <t>4454112</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>andsht</t>
+          <t>SergeyStrokun</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4471950</t>
+          <t>https://banki.ru/profile/index.php?UID=4454112</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Здравствуйте!Пришлите на zabota@sberbank.ru ваши ФИО, дату рождения и контактный номер, в теме письма укажите «11557048 banki.ru». Проверю, как можно помочь.</t>
+          <t>Здравствуйте!Все проверю и вернусь к вам до 19 июня.</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11557033</t>
+          <t>11559011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557033</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559011</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Здравствуйте сегодня мне оформила карту 1690 рублей и потом я думал карта бесплатна, они подписали мне на сберпрайм,мне можно отказаться от подписки и вернуть деньги 1690 рублей, я первый раз оформила карта г. Москва ул. Судостроительная 32</t>
+          <t>Добрый день. Могу ли я получить выписку из Сбербанка о перечислениях со своего расчетного счета другому лицу денежных средств за 2014—2015 гг. для суда? Куда и к кому я могу обратиться с данным вопросом?Заранее благодарю</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4471646</t>
+          <t>4508845</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kambarov</t>
+          <t>89266460266</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4471646</t>
+          <t>https://banki.ru/profile/index.php?UID=4508845</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Здравствуйте!Спасибо, письмо у меня.</t>
+          <t>Здравствуйте!Письмо получила, спасибо. Проверю, что можно делать, вернусь с комментарием до 22 мая.</t>
         </is>
       </c>
     </row>
@@ -1111,42 +1111,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11557031</t>
+          <t>11559010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://banki.ru/services/questions-answers/?questionId=11557031</t>
+          <t>https://banki.ru/services/questions-answers/?questionId=11559010</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Здравствуйте, я недавно ложила деньги на карту, 2200, если быть точнее. 200 рублей пришли, всё в норме, но когда я нажала добавить деньги и положила 2000, банкомат выдал ошибку, что-то типо «произошёл сбой при внесении наличных». Банкомат выдал чек, в котором говорилось, что через 30 минут деньги придут, но пошла уже 2 часа, а денег нет:(</t>
+          <t>С карты вашего банка у меня сняли деньги, другого банка. Как узнать с какого банкомата и какого банка были сняты ДС?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4471758</t>
+          <t>4509564</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>g*******@gmail.com</t>
+          <t>elena4413</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://banki.ru/profile/index.php?UID=4471758</t>
+          <t>https://banki.ru/profile/index.php?UID=4509564</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Краснодарский край, город Краснодар</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Здравствуйте.Деньги зачислены на карту. Извините, пожалуйста.</t>
+          <t>Здравствуйте!Вы можете позвонить моим коллегам по номеру 900, если деньги сняли через банкомат Сбербанка, то вам подскажут адрес, по которому он находится. Если операция проводилась через банкомат другого банка, то для проверки информации необходимо обратиться в правоохранительные органы.</t>
         </is>
       </c>
     </row>
